--- a/Event Defaults.xlsx
+++ b/Event Defaults.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\StanpumpR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6133BF-B6F0-4496-AD2D-48131F4C89CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C554C5-ED97-4E6B-82D4-04361F3002CC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14746" xr2:uid="{F0982540-1D20-486F-BC77-810E34294767}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>Event</t>
   </si>
@@ -100,6 +100,45 @@
   </si>
   <si>
     <t>black</t>
+  </si>
+  <si>
+    <t>CPB36</t>
+  </si>
+  <si>
+    <t>CPB35</t>
+  </si>
+  <si>
+    <t>CPB34</t>
+  </si>
+  <si>
+    <t>CPB33</t>
+  </si>
+  <si>
+    <t>CPB32</t>
+  </si>
+  <si>
+    <t>CPB31</t>
+  </si>
+  <si>
+    <t>#FF40FF</t>
+  </si>
+  <si>
+    <t>#2a0aca</t>
+  </si>
+  <si>
+    <t>#5414d4</t>
+  </si>
+  <si>
+    <t>#7e1ede</t>
+  </si>
+  <si>
+    <t>#a828e8</t>
+  </si>
+  <si>
+    <t>#d232f2</t>
+  </si>
+  <si>
+    <t>#181CAE</t>
   </si>
 </sst>
 </file>
@@ -451,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D63511B-1DA6-4DFC-B636-865C479ED9A3}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -531,62 +570,110 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B22" t="s">
         <v>22</v>
       </c>
     </row>
